--- a/4-waardelijsten/IMKL-Waardelijsten-3.0.xlsx
+++ b/4-waardelijsten/IMKL-Waardelijsten-3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.janssen.GNM\Documents\Github\imkl-werkomgeving\4-waardelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D164FF-BE1D-4571-9F2B-9180A2229EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BCD75C-B63F-4BE5-B018-DFBBFBC319D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42750" yWindow="-1140" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27840" yWindow="-6930" windowWidth="21600" windowHeight="11235" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="1159">
   <si>
     <t>Naam</t>
   </si>
@@ -3031,9 +3031,6 @@
   </si>
   <si>
     <t>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue</t>
-  </si>
-  <si>
-    <t>Toestand faciliteit</t>
   </si>
   <si>
     <t>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue</t>
@@ -4440,11 +4437,11 @@
         <v>976</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -4803,7 +4800,7 @@
         <v>976</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>72</v>
@@ -4836,8 +4833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6E6BF3-2E3C-4A42-96BA-2109A771B036}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4855,7 +4852,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4911,7 +4908,7 @@
         <v>503</v>
       </c>
       <c r="B8" t="s">
-        <v>985</v>
+        <v>503</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>984</v>
@@ -4949,7 +4946,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4962,19 +4959,19 @@
     </row>
     <row r="14" spans="1:3" s="24" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C14" s="32"/>
     </row>
     <row r="15" spans="1:3" s="24" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C15" s="32"/>
     </row>
@@ -5004,10 +5001,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C19" s="41"/>
     </row>
@@ -5035,7 +5032,7 @@
         <v>504</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -5046,7 +5043,7 @@
         <v>505</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5065,7 +5062,7 @@
         <v>519</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D26">
         <v>404</v>
@@ -5079,7 +5076,7 @@
         <v>83</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5098,7 +5095,7 @@
         <v>98</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5109,7 +5106,7 @@
         <v>99</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5128,7 +5125,7 @@
         <v>533</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D33">
         <v>404</v>
@@ -5142,7 +5139,7 @@
         <v>520</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D34">
         <v>404</v>
@@ -5164,7 +5161,7 @@
         <v>100</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5175,7 +5172,7 @@
         <v>616</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -5194,7 +5191,7 @@
         <v>843</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -5205,7 +5202,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -5216,7 +5213,7 @@
         <v>521</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -5227,7 +5224,7 @@
         <v>781</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -5238,7 +5235,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -5249,7 +5246,7 @@
         <v>94</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -5260,7 +5257,7 @@
         <v>506</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -6407,449 +6404,449 @@
     </row>
     <row r="63" spans="1:10" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E63" s="40" t="s">
         <v>1048</v>
       </c>
-      <c r="B63" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="40" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E63" s="40" t="s">
-        <v>1049</v>
-      </c>
       <c r="H63" s="36" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H64" s="35"/>
     </row>
     <row r="65" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B66" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B67" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H67" s="35" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B69" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B70" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="41" t="s">
         <v>1086</v>
       </c>
-      <c r="B72" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>1087</v>
-      </c>
       <c r="E72" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H72" s="36"/>
     </row>
     <row r="73" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B73" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H73" s="36"/>
     </row>
     <row r="74" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B74" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H74" s="36"/>
     </row>
     <row r="75" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B75" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H75" s="36"/>
     </row>
     <row r="76" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B76" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H76" s="36"/>
     </row>
     <row r="77" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B77" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H77" s="36"/>
     </row>
     <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B78" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H78" s="36"/>
     </row>
     <row r="79" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B79" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H79" s="36"/>
     </row>
     <row r="80" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B80" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H80" s="36"/>
     </row>
     <row r="81" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B81" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H81" s="36"/>
     </row>
     <row r="82" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H82" s="36"/>
     </row>
     <row r="83" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B83" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E83" s="41" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H83" s="36"/>
     </row>
     <row r="84" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B84" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H84" s="36"/>
     </row>
     <row r="85" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B85" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E85" s="41" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H85" s="36"/>
     </row>
     <row r="86" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B86" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H86" s="36"/>
     </row>
     <row r="87" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B87" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E87" s="41" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H87" s="36"/>
     </row>
     <row r="88" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B88" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E88" s="41" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H88" s="36"/>
     </row>
     <row r="89" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B89" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H89" s="36"/>
     </row>
     <row r="90" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B90" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="41" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H90" s="36"/>
     </row>
     <row r="91" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B91" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E91" s="41" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H91" s="36"/>
     </row>
@@ -6991,176 +6988,176 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B100" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="32"/>
       <c r="D100" s="32" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="32"/>
       <c r="H100" s="32" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I100" s="32"/>
       <c r="J100" s="32"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B101" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="32"/>
       <c r="D101" s="32" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F101" s="32"/>
       <c r="G101" s="32"/>
       <c r="H101" s="32" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="I101" s="32"/>
       <c r="J101" s="32"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B102" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="32"/>
       <c r="D102" s="32" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="32"/>
       <c r="H102" s="32" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I102" s="32"/>
       <c r="J102" s="32"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B103" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="32"/>
       <c r="D103" s="32" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F103" s="32"/>
       <c r="G103" s="32"/>
       <c r="H103" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103" s="32"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B104" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="32"/>
       <c r="D104" s="32" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="32"/>
       <c r="H104" s="32" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I104" s="32"/>
       <c r="J104" s="32"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B105" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="32"/>
       <c r="D105" s="32" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F105" s="32"/>
       <c r="G105" s="32"/>
       <c r="H105" s="32" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B106" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="32"/>
       <c r="D106" s="32" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
       <c r="H106" s="32" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I106" s="32"/>
       <c r="J106" s="32"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B107" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="32"/>
       <c r="D107" s="32" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
       <c r="H107" s="32" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I107" s="32"/>
       <c r="J107" s="32"/>
@@ -7310,15 +7307,15 @@
       </c>
       <c r="C116" s="32"/>
       <c r="D116" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E116" s="32" t="s">
         <v>1016</v>
-      </c>
-      <c r="E116" s="32" t="s">
-        <v>1017</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="32"/>
       <c r="H116" s="32" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I116" s="39"/>
       <c r="J116" s="39"/>
@@ -8186,10 +8183,10 @@
       </c>
       <c r="C163" s="32"/>
       <c r="D163" s="32" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E163" s="32" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F163" s="32"/>
       <c r="G163" s="32"/>
@@ -9377,7 +9374,7 @@
         <v>453</v>
       </c>
       <c r="E240" s="30" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -9478,7 +9475,7 @@
         <v>628</v>
       </c>
       <c r="H247" s="30" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -9495,7 +9492,7 @@
         <v>629</v>
       </c>
       <c r="H248" s="30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -9610,7 +9607,7 @@
         <v>572</v>
       </c>
       <c r="E256" s="30" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -10468,13 +10465,13 @@
         <v>9</v>
       </c>
       <c r="D304" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E304" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H304" s="35" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="305" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -10491,7 +10488,7 @@
         <v>767</v>
       </c>
       <c r="H305" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="306" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -10502,13 +10499,13 @@
         <v>9</v>
       </c>
       <c r="D306" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E306" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H306" s="35" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="307" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -10519,13 +10516,13 @@
         <v>9</v>
       </c>
       <c r="D307" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E307" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H307" s="35" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="308" spans="1:8" s="32" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
@@ -10536,13 +10533,13 @@
         <v>9</v>
       </c>
       <c r="D308" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E308" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H308" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="309" spans="1:8" s="32" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
@@ -10553,13 +10550,13 @@
         <v>9</v>
       </c>
       <c r="D309" s="34" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E309" s="34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H309" s="35" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="310" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -10570,13 +10567,13 @@
         <v>9</v>
       </c>
       <c r="D310" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E310" s="34" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H310" s="35" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="311" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -10587,13 +10584,13 @@
         <v>9</v>
       </c>
       <c r="D311" s="34" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E311" s="34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H311" s="35" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="312" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -10604,13 +10601,13 @@
         <v>9</v>
       </c>
       <c r="D312" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E312" s="34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H312" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="313" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -10621,13 +10618,13 @@
         <v>9</v>
       </c>
       <c r="D313" s="34" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E313" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H313" s="35" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="314" spans="1:8" s="32" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.3">
@@ -10638,13 +10635,13 @@
         <v>9</v>
       </c>
       <c r="D314" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E314" s="34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H314" s="35" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="315" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -10655,13 +10652,13 @@
         <v>9</v>
       </c>
       <c r="D315" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E315" s="34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H315" s="35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="316" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -10672,13 +10669,13 @@
         <v>9</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E316" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H316" s="35" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="317" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -10689,13 +10686,13 @@
         <v>9</v>
       </c>
       <c r="D317" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E317" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H317" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="318" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -10706,13 +10703,13 @@
         <v>9</v>
       </c>
       <c r="D318" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E318" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H318" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="319" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -10723,13 +10720,13 @@
         <v>9</v>
       </c>
       <c r="D319" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E319" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H319" s="35" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="320" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -10740,13 +10737,13 @@
         <v>9</v>
       </c>
       <c r="D320" s="34" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E320" s="34" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H320" s="35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="321" spans="1:10" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -10757,13 +10754,13 @@
         <v>9</v>
       </c>
       <c r="D321" s="36" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E321" s="36" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H321" s="35" t="s">
         <v>1118</v>
-      </c>
-      <c r="H321" s="35" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -14539,7 +14536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -14954,7 +14951,7 @@
         <v>20211203</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>983</v>
@@ -14965,10 +14962,10 @@
         <v>20230331</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>1006</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -14976,7 +14973,7 @@
         <v>2024</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -14984,10 +14981,10 @@
         <v>20240105</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>1013</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -14995,10 +14992,10 @@
         <v>20240821</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -15006,18 +15003,18 @@
         <v>20240906</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D45" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -15028,7 +15025,7 @@
         <v>78</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -15036,10 +15033,10 @@
         <v>20240930</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -15047,26 +15044,26 @@
         <v>20241101</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D49" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D50" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -15074,18 +15071,18 @@
         <v>20250130</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D52" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>1158</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>1159</v>
       </c>
     </row>
   </sheetData>
